--- a/氣象性能評估工具V2/data/obs/backup/2016-06-03_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-03_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-03 00:00:00</t>
+    <t>2016-06-03-00</t>
   </si>
   <si>
     <t>22.4</t>
@@ -160,7 +160,7 @@
     <t>29.3</t>
   </si>
   <si>
-    <t>2016-06-03 01:00:00</t>
+    <t>2016-06-03-01</t>
   </si>
   <si>
     <t>22.1</t>
@@ -199,7 +199,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-03 02:00:00</t>
+    <t>2016-06-03-02</t>
   </si>
   <si>
     <t>25.2</t>
@@ -235,7 +235,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-03 03:00:00</t>
+    <t>2016-06-03-03</t>
   </si>
   <si>
     <t>22.2</t>
@@ -259,7 +259,7 @@
     <t>27.9</t>
   </si>
   <si>
-    <t>2016-06-03 04:00:00</t>
+    <t>2016-06-03-04</t>
   </si>
   <si>
     <t>23.3</t>
@@ -283,7 +283,7 @@
     <t>28.5</t>
   </si>
   <si>
-    <t>2016-06-03 05:00:00</t>
+    <t>2016-06-03-05</t>
   </si>
   <si>
     <t>22.0</t>
@@ -298,7 +298,7 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>2016-06-03 06:00:00</t>
+    <t>2016-06-03-06</t>
   </si>
   <si>
     <t>21.9</t>
@@ -316,7 +316,7 @@
     <t>30.2</t>
   </si>
   <si>
-    <t>2016-06-03 07:00:00</t>
+    <t>2016-06-03-07</t>
   </si>
   <si>
     <t>21.8</t>
@@ -346,7 +346,7 @@
     <t>34.3</t>
   </si>
   <si>
-    <t>2016-06-03 08:00:00</t>
+    <t>2016-06-03-08</t>
   </si>
   <si>
     <t>31.5</t>
@@ -373,7 +373,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-03 09:00:00</t>
+    <t>2016-06-03-09</t>
   </si>
   <si>
     <t>22.3</t>
@@ -421,7 +421,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-03 10:00:00</t>
+    <t>2016-06-03-10</t>
   </si>
   <si>
     <t>18.1</t>
@@ -436,7 +436,7 @@
     <t>36.8</t>
   </si>
   <si>
-    <t>2016-06-03 11:00:00</t>
+    <t>2016-06-03-11</t>
   </si>
   <si>
     <t>24.0</t>
@@ -469,7 +469,7 @@
     <t>37.3</t>
   </si>
   <si>
-    <t>2016-06-03 12:00:00</t>
+    <t>2016-06-03-12</t>
   </si>
   <si>
     <t>24.7</t>
@@ -508,7 +508,7 @@
     <t>33.0</t>
   </si>
   <si>
-    <t>2016-06-03 13:00:00</t>
+    <t>2016-06-03-13</t>
   </si>
   <si>
     <t>24.2</t>
@@ -538,7 +538,7 @@
     <t>37.5</t>
   </si>
   <si>
-    <t>2016-06-03 14:00:00</t>
+    <t>2016-06-03-14</t>
   </si>
   <si>
     <t>24.3</t>
@@ -556,7 +556,7 @@
     <t>33.3</t>
   </si>
   <si>
-    <t>2016-06-03 15:00:00</t>
+    <t>2016-06-03-15</t>
   </si>
   <si>
     <t>24.1</t>
@@ -574,7 +574,7 @@
     <t>8.1</t>
   </si>
   <si>
-    <t>2016-06-03 16:00:00</t>
+    <t>2016-06-03-16</t>
   </si>
   <si>
     <t>23.9</t>
@@ -589,7 +589,7 @@
     <t>31.2</t>
   </si>
   <si>
-    <t>2016-06-03 17:00:00</t>
+    <t>2016-06-03-17</t>
   </si>
   <si>
     <t>23.6</t>
@@ -601,7 +601,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>2016-06-03 18:00:00</t>
+    <t>2016-06-03-18</t>
   </si>
   <si>
     <t>23.4</t>
@@ -613,7 +613,7 @@
     <t>29.7</t>
   </si>
   <si>
-    <t>2016-06-03 19:00:00</t>
+    <t>2016-06-03-19</t>
   </si>
   <si>
     <t>23.7</t>
@@ -628,7 +628,7 @@
     <t>4.6</t>
   </si>
   <si>
-    <t>2016-06-03 20:00:00</t>
+    <t>2016-06-03-20</t>
   </si>
   <si>
     <t>22.5</t>
@@ -637,19 +637,19 @@
     <t>13.4</t>
   </si>
   <si>
-    <t>2016-06-03 21:00:00</t>
+    <t>2016-06-03-21</t>
   </si>
   <si>
     <t>13.1</t>
   </si>
   <si>
-    <t>2016-06-03 22:00:00</t>
+    <t>2016-06-03-22</t>
   </si>
   <si>
     <t>13.3</t>
   </si>
   <si>
-    <t>2016-06-03 23:00:00</t>
+    <t>2016-06-03-23</t>
   </si>
   <si>
     <t>25.0</t>
